--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,46 +399,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,70 +449,70 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>341</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>674</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>167</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,62 +520,62 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>590</v>
+        <v>950</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>252</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1070</v>
+        <v>991</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1126</v>
+        <v>1082</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1492</v>
+        <v>1084</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1604</v>
+        <v>1309</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,43 +597,43 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1767</v>
+        <v>1407</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1776</v>
+        <v>1490</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2104</v>
+        <v>1523</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2169</v>
+        <v>2103</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,54 +641,54 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2217</v>
+        <v>2734</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2608</v>
+        <v>2912</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2999</v>
+        <v>3104</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3016</v>
+        <v>3258</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3024</v>
+        <v>3278</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3048</v>
+        <v>3387</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3980</v>
+        <v>3610</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -718,21 +718,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4076</v>
+        <v>4176</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,73 +740,73 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5208</v>
+        <v>5086</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5434</v>
+        <v>5208</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5585</v>
+        <v>5391</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>7360</v>
+        <v>5434</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8085</v>
+        <v>5585</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>8677</v>
+        <v>6036</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8685</v>
+        <v>6629</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -817,21 +817,21 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8686</v>
+        <v>6957</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8897</v>
+        <v>7887</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,43 +839,43 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>9208</v>
+        <v>8106</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9289</v>
+        <v>8897</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>69</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9778</v>
+        <v>8945</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>10397</v>
+        <v>9373</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,21 +883,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>10450</v>
+        <v>9877</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>10521</v>
+        <v>10175</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>10816</v>
+        <v>10382</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,51 +916,51 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>10825</v>
+        <v>10507</v>
       </c>
       <c r="B49">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>10936</v>
+        <v>10825</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>11091</v>
+        <v>10897</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11092</v>
+        <v>11161</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11093</v>
+        <v>11503</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11160</v>
+        <v>11610</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -982,32 +982,32 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11409</v>
+        <v>12043</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11510</v>
+        <v>12139</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11587</v>
+        <v>12235</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -1015,21 +1015,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11681</v>
+        <v>12236</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11717</v>
+        <v>12333</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,32 +1037,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11765</v>
+        <v>12533</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11962</v>
+        <v>12594</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12059</v>
+        <v>12646</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,18 +1070,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12579</v>
+        <v>12721</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12656</v>
+        <v>12923</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1092,51 +1092,51 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12870</v>
+        <v>13249</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>13023</v>
+        <v>13324</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>13034</v>
+        <v>13469</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>647</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>13198</v>
+        <v>13489</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>13324</v>
+        <v>20486</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>13489</v>
+        <v>20498</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>20498</v>
+        <v>21700</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>21269</v>
+        <v>21946</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>21700</v>
+        <v>22708</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,68 +1191,57 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>21808</v>
+        <v>22930</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>106</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>22554</v>
+        <v>22990</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>22928</v>
+        <v>23234</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C76">
-        <v>331</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>23235</v>
+        <v>23425</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>24126</v>
+        <v>24120</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>24260</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -421,43 +421,43 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>450</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -465,21 +465,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>335</v>
+        <v>206</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -498,21 +498,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>424</v>
+        <v>345</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>603</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>590</v>
+        <v>346</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,51 +520,51 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>950</v>
+        <v>410</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>990</v>
+        <v>413</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>991</v>
+        <v>440</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1070</v>
+        <v>448</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1082</v>
+        <v>470</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -575,21 +575,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1084</v>
+        <v>491</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1309</v>
+        <v>951</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,32 +597,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1407</v>
+        <v>974</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1490</v>
+        <v>1059</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1523</v>
+        <v>1070</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,65 +630,65 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2103</v>
+        <v>1124</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2734</v>
+        <v>1407</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2912</v>
+        <v>1409</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3104</v>
+        <v>1703</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3258</v>
+        <v>1767</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3278</v>
+        <v>2103</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,21 +696,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3387</v>
+        <v>2104</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3610</v>
+        <v>2216</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -718,87 +718,87 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3980</v>
+        <v>2217</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4176</v>
+        <v>2322</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5086</v>
+        <v>2336</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5208</v>
+        <v>2528</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>629</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5391</v>
+        <v>2608</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>5434</v>
+        <v>3258</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>5585</v>
+        <v>3896</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>6036</v>
+        <v>3980</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,76 +806,76 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>6629</v>
+        <v>3989</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>6957</v>
+        <v>4354</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>7887</v>
+        <v>5811</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8106</v>
+        <v>5812</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8897</v>
+        <v>7036</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8945</v>
+        <v>8106</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9373</v>
+        <v>8690</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,21 +883,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9877</v>
+        <v>8898</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>10175</v>
+        <v>8923</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>10382</v>
+        <v>9358</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,43 +916,43 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>10507</v>
+        <v>9373</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>10825</v>
+        <v>9613</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>10897</v>
+        <v>9877</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11161</v>
+        <v>9971</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11503</v>
+        <v>10279</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11610</v>
+        <v>10453</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -982,76 +982,76 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>12043</v>
+        <v>10460</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>12139</v>
+        <v>10594</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>148</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>12235</v>
+        <v>10595</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12236</v>
+        <v>10597</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12333</v>
+        <v>11681</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>12533</v>
+        <v>11773</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>581</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12594</v>
+        <v>12040</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12646</v>
+        <v>12236</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,18 +1070,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12721</v>
+        <v>12241</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12923</v>
+        <v>12646</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1092,18 +1092,18 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>13249</v>
+        <v>12653</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>13324</v>
+        <v>12870</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1114,18 +1114,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>13469</v>
+        <v>12973</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>13489</v>
+        <v>13324</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>20486</v>
+        <v>13406</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1147,43 +1147,43 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>20498</v>
+        <v>13407</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>21700</v>
+        <v>19501</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>21946</v>
+        <v>19971</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>22708</v>
+        <v>21010</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,21 +1191,21 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>22930</v>
+        <v>21269</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>314</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>22990</v>
+        <v>21476</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -1213,35 +1213,90 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>23234</v>
+        <v>21809</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>23425</v>
+        <v>21946</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>199</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>24120</v>
+        <v>22990</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
         <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>23335</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>23961</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>23962</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>24712</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>24722</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,21 +399,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -421,32 +421,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,21 +454,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>205</v>
+        <v>418</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,18 +476,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>248</v>
+        <v>470</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -498,76 +498,76 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>345</v>
+        <v>563</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>346</v>
+        <v>590</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>410</v>
+        <v>955</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>413</v>
+        <v>997</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>440</v>
+        <v>1059</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>212</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>448</v>
+        <v>1126</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>470</v>
+        <v>1243</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,21 +575,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>491</v>
+        <v>1409</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>951</v>
+        <v>1691</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,21 +597,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>974</v>
+        <v>1703</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1059</v>
+        <v>2057</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1070</v>
+        <v>2161</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,32 +630,32 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1124</v>
+        <v>2322</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1407</v>
+        <v>2419</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1409</v>
+        <v>2424</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1703</v>
+        <v>2492</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,21 +674,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1767</v>
+        <v>2608</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2103</v>
+        <v>2733</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,128 +696,128 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2104</v>
+        <v>2744</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2216</v>
+        <v>2821</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2217</v>
+        <v>2945</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2322</v>
+        <v>3104</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>116</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2336</v>
+        <v>3585</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>651</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2528</v>
+        <v>3980</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2608</v>
+        <v>4032</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3258</v>
+        <v>4232</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3896</v>
+        <v>4926</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3980</v>
+        <v>4927</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3989</v>
+        <v>5005</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4354</v>
+        <v>5086</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -828,84 +828,84 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5811</v>
+        <v>5208</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5812</v>
+        <v>5646</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>7036</v>
+        <v>5812</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8106</v>
+        <v>5813</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8690</v>
+        <v>5868</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>8898</v>
+        <v>6097</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8923</v>
+        <v>7036</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>9358</v>
+        <v>8023</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>9373</v>
+        <v>8898</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,32 +927,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>9613</v>
+        <v>8927</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9877</v>
+        <v>8943</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9971</v>
+        <v>8944</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,32 +960,32 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>10279</v>
+        <v>9081</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10453</v>
+        <v>9085</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>10460</v>
+        <v>9355</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -993,84 +993,84 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>10594</v>
+        <v>9357</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>10595</v>
+        <v>9608</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>10597</v>
+        <v>9785</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11681</v>
+        <v>10594</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11773</v>
+        <v>11492</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12040</v>
+        <v>11555</v>
       </c>
       <c r="B61">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12236</v>
+        <v>11681</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12241</v>
+        <v>12235</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12646</v>
+        <v>12239</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,35 +1092,35 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12653</v>
+        <v>12646</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12870</v>
+        <v>13034</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12973</v>
+        <v>13249</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,171 +1131,72 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>13406</v>
+        <v>13407</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>13407</v>
+        <v>13893</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>19501</v>
+        <v>21269</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>19971</v>
+        <v>23234</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C72">
-        <v>415</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>21010</v>
+        <v>23278</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>21269</v>
+        <v>24722</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>21476</v>
-      </c>
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>21809</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>21946</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>22990</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>23335</v>
-      </c>
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>23961</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>23962</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>24712</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>24722</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
         <v>62</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,21 +399,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -421,32 +421,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>338</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,43 +454,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>448</v>
+        <v>823</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>470</v>
+        <v>975</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -498,98 +498,98 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>590</v>
+        <v>1059</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>955</v>
+        <v>1701</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>997</v>
+        <v>2050</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1059</v>
+        <v>2105</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1126</v>
+        <v>2161</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>252</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1243</v>
+        <v>2225</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1409</v>
+        <v>2916</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1691</v>
+        <v>3016</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1703</v>
+        <v>3575</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,18 +608,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2057</v>
+        <v>3889</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2161</v>
+        <v>3891</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -630,21 +630,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2322</v>
+        <v>3893</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2419</v>
+        <v>3894</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2424</v>
+        <v>3896</v>
       </c>
       <c r="B25">
         <v>29</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2492</v>
+        <v>4232</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,98 +674,98 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2608</v>
+        <v>5076</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2733</v>
+        <v>5813</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2744</v>
+        <v>7703</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>387</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2821</v>
+        <v>7885</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2945</v>
+        <v>9289</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3104</v>
+        <v>9761</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C32">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3585</v>
+        <v>9784</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3980</v>
+        <v>11159</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4032</v>
+        <v>11183</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,21 +773,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4232</v>
+        <v>11684</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4926</v>
+        <v>12059</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -795,18 +795,18 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4927</v>
+        <v>12344</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5005</v>
+        <v>12418</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>5086</v>
+        <v>12898</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -828,87 +828,87 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5208</v>
+        <v>13033</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5646</v>
+        <v>13034</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5812</v>
+        <v>13278</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5813</v>
+        <v>13283</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5868</v>
+        <v>20649</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>247</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6097</v>
+        <v>21946</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7036</v>
+        <v>23234</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8023</v>
+        <v>23337</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8898</v>
+        <v>23442</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,29 +927,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8927</v>
+        <v>23489</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8943</v>
+        <v>23611</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>407</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8944</v>
+        <v>23960</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -960,244 +960,24 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9081</v>
+        <v>23961</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>9085</v>
+        <v>24708</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>9355</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>9357</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>9608</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>9785</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>10594</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>11492</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>11555</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>11681</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>12235</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>12239</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>12646</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>13034</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>13249</v>
-      </c>
-      <c r="B67">
-        <v>29</v>
-      </c>
-      <c r="C67">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>13324</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>13407</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>13893</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>21269</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>23234</v>
-      </c>
-      <c r="B72">
-        <v>29</v>
-      </c>
-      <c r="C72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>23278</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>24722</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,32 +421,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>242</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,54 +454,54 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>406</v>
+        <v>169</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>823</v>
+        <v>1006</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>975</v>
+        <v>2486</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>995</v>
+        <v>3016</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1059</v>
+        <v>3047</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,76 +520,76 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1701</v>
+        <v>3889</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2050</v>
+        <v>3891</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>515</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2105</v>
+        <v>3892</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2161</v>
+        <v>3893</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2225</v>
+        <v>3894</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>665</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2916</v>
+        <v>3909</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3016</v>
+        <v>4032</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,32 +597,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3575</v>
+        <v>5813</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3889</v>
+        <v>7120</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3891</v>
+        <v>8898</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,21 +630,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3893</v>
+        <v>9289</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3894</v>
+        <v>9761</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,54 +652,54 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3896</v>
+        <v>9833</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4232</v>
+        <v>10780</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>5076</v>
+        <v>11091</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5813</v>
+        <v>11160</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>658</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>7703</v>
+        <v>11183</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,62 +707,62 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>7885</v>
+        <v>11681</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>156</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>9289</v>
+        <v>11684</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>9761</v>
+        <v>11706</v>
       </c>
       <c r="B32">
-        <v>332</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>9784</v>
+        <v>11707</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>11159</v>
+        <v>12010</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>560</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>11183</v>
+        <v>12887</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -773,29 +773,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>11684</v>
+        <v>13028</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>12059</v>
+        <v>23234</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>12344</v>
+        <v>23563</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>12418</v>
+        <v>23961</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -817,166 +817,12 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>12898</v>
+        <v>24724</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>13033</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>13034</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>13278</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>13283</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>20649</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>21946</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>23234</v>
-      </c>
-      <c r="B47">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>23337</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>23442</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>23489</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>23611</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>23960</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>23961</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>24708</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,21 +432,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>94</v>
+        <v>593</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>110</v>
+        <v>823</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,62 +454,62 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>169</v>
+        <v>1006</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>305</v>
+        <v>1492</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1006</v>
+        <v>1602</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2486</v>
+        <v>1767</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>324</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3016</v>
+        <v>1777</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3047</v>
+        <v>2730</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -520,24 +520,24 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3889</v>
+        <v>3059</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3891</v>
+        <v>3840</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -564,7 +564,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3894</v>
+        <v>5435</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -575,21 +575,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3909</v>
+        <v>6494</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4032</v>
+        <v>7573</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,21 +597,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5813</v>
+        <v>9083</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>7120</v>
+        <v>9358</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,21 +619,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>8898</v>
+        <v>9760</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>9289</v>
+        <v>9827</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,188 +641,144 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>9761</v>
+        <v>11684</v>
       </c>
       <c r="B24">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>9833</v>
+        <v>11848</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>10780</v>
+        <v>12992</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>413</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>11091</v>
+        <v>12993</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>11160</v>
+        <v>13023</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>557</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11183</v>
+        <v>13034</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>11681</v>
+        <v>21686</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>11684</v>
+        <v>22930</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>11706</v>
+        <v>23439</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>655</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11707</v>
+        <v>23961</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>12010</v>
+        <v>24712</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>12887</v>
+        <v>24722</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>13028</v>
+        <v>24724</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>23234</v>
-      </c>
-      <c r="B37">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>23563</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>23961</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>24724</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,54 +432,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>593</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>823</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1006</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1492</v>
+        <v>170</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1602</v>
+        <v>205</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1767</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -498,51 +498,51 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1777</v>
+        <v>209</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2730</v>
+        <v>292</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3059</v>
+        <v>336</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3840</v>
+        <v>345</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3892</v>
+        <v>410</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -553,21 +553,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3893</v>
+        <v>424</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5435</v>
+        <v>454</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,18 +575,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>6494</v>
+        <v>590</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7573</v>
+        <v>1087</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -597,188 +597,386 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>9083</v>
+        <v>1602</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>537</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>9358</v>
+        <v>1777</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>9760</v>
+        <v>2057</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>9827</v>
+        <v>2103</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11684</v>
+        <v>2726</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>11848</v>
+        <v>2879</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>12992</v>
+        <v>2916</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2008</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>12993</v>
+        <v>3840</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>13023</v>
+        <v>5080</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>13034</v>
+        <v>5452</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>659</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>21686</v>
+        <v>5584</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>22930</v>
+        <v>6158</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>318</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>23439</v>
+        <v>6494</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>23961</v>
+        <v>7036</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>24712</v>
+        <v>9289</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>24722</v>
+        <v>9358</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>24724</v>
+        <v>9760</v>
       </c>
       <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>9784</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>11090</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>11490</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>11587</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>12010</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>12647</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>13034</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>13038</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>13299</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>13498</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>13965</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>13968</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>14038</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>21686</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>21798</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>22313</v>
+      </c>
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>22960</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>24261</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,84 +410,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -498,87 +498,87 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>656</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>410</v>
+        <v>292</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>424</v>
+        <v>305</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>454</v>
+        <v>336</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1087</v>
+        <v>951</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,51 +597,51 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1602</v>
+        <v>1087</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1777</v>
+        <v>1409</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2057</v>
+        <v>1492</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>502</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2103</v>
+        <v>2486</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>188</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2726</v>
+        <v>3049</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -652,18 +652,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2879</v>
+        <v>3059</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2916</v>
+        <v>3450</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3840</v>
+        <v>3889</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -696,57 +696,57 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5452</v>
+        <v>5151</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5584</v>
+        <v>5208</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>6158</v>
+        <v>5584</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6494</v>
+        <v>5729</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>7036</v>
+        <v>6496</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -762,51 +762,51 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>9358</v>
+        <v>9760</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9760</v>
+        <v>9784</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>9784</v>
+        <v>9827</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>11090</v>
+        <v>9828</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>11490</v>
+        <v>11587</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -817,18 +817,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>11587</v>
+        <v>11707</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>12010</v>
+        <v>11711</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>12647</v>
+        <v>11868</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -850,32 +850,32 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>13034</v>
+        <v>12010</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>659</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>13038</v>
+        <v>12235</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>13299</v>
+        <v>12241</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,62 +883,62 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>13498</v>
+        <v>13033</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>13965</v>
+        <v>13034</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>13968</v>
+        <v>13484</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>14038</v>
+        <v>13962</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>21686</v>
+        <v>13965</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>21798</v>
+        <v>13968</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -949,34 +949,56 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>22313</v>
+        <v>20650</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>22960</v>
+        <v>21686</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>680</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>24261</v>
+        <v>22313</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>22928</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>24708</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,73 +421,73 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>170</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -498,21 +498,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>170</v>
+        <v>346</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,18 +520,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>209</v>
+        <v>424</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>220</v>
+        <v>951</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -542,43 +542,43 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>292</v>
+        <v>1087</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>661</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>305</v>
+        <v>1124</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>336</v>
+        <v>2436</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>454</v>
+        <v>3891</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>951</v>
+        <v>3961</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,65 +597,65 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1087</v>
+        <v>5080</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1409</v>
+        <v>5513</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1492</v>
+        <v>6158</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2486</v>
+        <v>6494</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>330</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3049</v>
+        <v>6540</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3059</v>
+        <v>7007</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3450</v>
+        <v>7084</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3889</v>
+        <v>8944</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,62 +685,62 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5080</v>
+        <v>9829</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5151</v>
+        <v>10450</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5208</v>
+        <v>10516</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5584</v>
+        <v>10517</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5729</v>
+        <v>10993</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>6496</v>
+        <v>11090</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -751,40 +751,40 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9289</v>
+        <v>11555</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>9760</v>
+        <v>11707</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9784</v>
+        <v>11961</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>9827</v>
+        <v>13025</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -795,54 +795,54 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>9828</v>
+        <v>13041</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>11587</v>
+        <v>13249</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>11707</v>
+        <v>20650</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>676</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>11711</v>
+        <v>20927</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>11868</v>
+        <v>22957</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -850,156 +850,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>12010</v>
+        <v>24260</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>12235</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>12241</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>13033</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>13034</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>13484</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>13962</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>13965</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>13968</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>20650</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>21686</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>22313</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>22928</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>24708</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -399,76 +399,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,65 +476,65 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>307</v>
+        <v>491</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>336</v>
+        <v>2335</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>346</v>
+        <v>2486</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>424</v>
+        <v>2744</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>603</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>951</v>
+        <v>2945</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1087</v>
+        <v>3670</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,29 +553,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1124</v>
+        <v>3889</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2436</v>
+        <v>3892</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3891</v>
+        <v>3894</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -586,76 +586,76 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3961</v>
+        <v>6158</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5080</v>
+        <v>7573</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5513</v>
+        <v>8089</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>6158</v>
+        <v>8648</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6494</v>
+        <v>8944</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6540</v>
+        <v>10537</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>7007</v>
+        <v>10780</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>7084</v>
+        <v>10936</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>8944</v>
+        <v>10939</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>9829</v>
+        <v>11091</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,54 +696,54 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>10450</v>
+        <v>11467</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>10516</v>
+        <v>11489</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>10517</v>
+        <v>11681</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>10993</v>
+        <v>11684</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11090</v>
+        <v>11711</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,76 +751,76 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>11555</v>
+        <v>12058</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>11707</v>
+        <v>12352</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>677</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>11961</v>
+        <v>13023</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>13025</v>
+        <v>13038</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>13041</v>
+        <v>20650</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>13249</v>
+        <v>22956</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>20650</v>
+        <v>23278</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,21 +828,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>20927</v>
+        <v>23380</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>22957</v>
+        <v>23442</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>24260</v>
+        <v>23445</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,106 +399,106 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>628</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>491</v>
+        <v>168</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2335</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -509,40 +509,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2486</v>
+        <v>201</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2744</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2945</v>
+        <v>215</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3670</v>
+        <v>305</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -553,87 +553,87 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3889</v>
+        <v>336</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3892</v>
+        <v>345</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3894</v>
+        <v>435</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>6158</v>
+        <v>436</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7573</v>
+        <v>515</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>8089</v>
+        <v>615</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>8648</v>
+        <v>624</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>8944</v>
+        <v>922</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,21 +641,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>10537</v>
+        <v>947</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>516</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>10780</v>
+        <v>952</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>10936</v>
+        <v>955</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>10939</v>
+        <v>996</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -685,178 +685,1311 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>11091</v>
+        <v>1082</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11467</v>
+        <v>1120</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>11489</v>
+        <v>1309</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>11681</v>
+        <v>1409</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>11684</v>
+        <v>1413</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11711</v>
+        <v>1414</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>12058</v>
+        <v>1447</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>12352</v>
+        <v>1519</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>13023</v>
+        <v>1654</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>13038</v>
+        <v>1766</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>20650</v>
+        <v>1767</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>22956</v>
+        <v>1776</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>23278</v>
+        <v>1777</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>23380</v>
+        <v>1880</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>23442</v>
+        <v>2050</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>23445</v>
+        <v>2057</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2103</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2108</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2335</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2336</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2726</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2728</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2729</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2776</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2857</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2859</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2912</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2991</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>3104</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>3451</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>3478</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>3670</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>3673</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>3981</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>4043</v>
+      </c>
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>4880</v>
+      </c>
+      <c r="B63">
+        <v>332</v>
+      </c>
+      <c r="C63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>4881</v>
+      </c>
+      <c r="B64">
+        <v>332</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>5081</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>5086</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>5152</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>5153</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>5165</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>5208</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>5243</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>5340</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>5341</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>5452</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>5453</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>5490</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>5584</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>5585</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>6098</v>
+      </c>
+      <c r="B79">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>6158</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>6575</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>6927</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>6931</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>7007</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>7036</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>8285</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>8635</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>8648</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>8677</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>8753</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>8754</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>8853</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>8963</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>8990</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>9082</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>9507</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>9827</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>9830</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>9998</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>10529</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>10536</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>10537</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>10717</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>10719</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>10780</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>10825</v>
+      </c>
+      <c r="B106">
+        <v>21</v>
+      </c>
+      <c r="C106">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>10906</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>11085</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>11114</v>
+      </c>
+      <c r="B109">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>11454</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>11467</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>11555</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>11711</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>11848</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>11857</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>11886</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>11952</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>12059</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>12128</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>12470</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>12536</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>12538</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>12675</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>12870</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>13023</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>13113</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>20486</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>20969</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>21088</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>21269</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>21566</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>21699</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>21798</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>22089</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>23380</v>
+      </c>
+      <c r="B135">
+        <v>29</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>23489</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>23491</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>23492</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>23493</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>23611</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>24127</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>24252</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>24256</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>24257</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>24258</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>24260</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,271 +399,271 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>960</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>460</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>353</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>737</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>126</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>435</v>
+        <v>167</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>114</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>114</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>515</v>
+        <v>248</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>615</v>
+        <v>307</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>624</v>
+        <v>335</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>922</v>
+        <v>336</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>947</v>
+        <v>410</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>952</v>
+        <v>424</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>955</v>
+        <v>434</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -674,216 +674,216 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>996</v>
+        <v>515</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1082</v>
+        <v>589</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1309</v>
+        <v>615</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1409</v>
+        <v>944</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1413</v>
+        <v>951</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1414</v>
+        <v>952</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1447</v>
+        <v>972</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1519</v>
+        <v>974</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>1838</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1654</v>
+        <v>990</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1766</v>
+        <v>991</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1767</v>
+        <v>1124</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1776</v>
+        <v>1309</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1777</v>
+        <v>1413</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1880</v>
+        <v>1622</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>249</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2050</v>
+        <v>1654</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>526</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2057</v>
+        <v>1776</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>526</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2103</v>
+        <v>1777</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>191</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2108</v>
+        <v>2049</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2335</v>
+        <v>2054</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -894,472 +894,472 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2336</v>
+        <v>2103</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>669</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2726</v>
+        <v>2108</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>138</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2728</v>
+        <v>2109</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2729</v>
+        <v>2161</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2776</v>
+        <v>2422</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C51">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2857</v>
+        <v>2726</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2859</v>
+        <v>2729</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2912</v>
+        <v>2733</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2991</v>
+        <v>2859</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3104</v>
+        <v>2878</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3451</v>
+        <v>2916</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3478</v>
+        <v>3049</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3670</v>
+        <v>3429</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3673</v>
+        <v>3610</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3981</v>
+        <v>3889</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>4043</v>
+        <v>3891</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>4880</v>
+        <v>3900</v>
       </c>
       <c r="B63">
-        <v>332</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>4881</v>
+        <v>3994</v>
       </c>
       <c r="B64">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>5081</v>
+        <v>4222</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>5086</v>
+        <v>5083</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>5152</v>
+        <v>5086</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>5153</v>
+        <v>5151</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>5165</v>
+        <v>5152</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>5208</v>
+        <v>5153</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>631</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>5243</v>
+        <v>5165</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>273</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>5340</v>
+        <v>5243</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>1255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>5341</v>
+        <v>5453</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5452</v>
+        <v>5584</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5453</v>
+        <v>5585</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>105</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>5490</v>
+        <v>5642</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>5584</v>
+        <v>5647</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>278</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5585</v>
+        <v>5666</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>282</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>6098</v>
+        <v>5813</v>
       </c>
       <c r="B79">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>6158</v>
+        <v>5946</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>284</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>6575</v>
+        <v>6158</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>6927</v>
+        <v>6575</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>6931</v>
+        <v>6928</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>7007</v>
+        <v>6936</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>7036</v>
+        <v>7004</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>8285</v>
+        <v>7005</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>539</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>8635</v>
+        <v>7007</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>390</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8648</v>
+        <v>8216</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>8677</v>
+        <v>8217</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -1367,98 +1367,98 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>8753</v>
+        <v>8283</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90">
-        <v>393</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>8754</v>
+        <v>8286</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91">
-        <v>394</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8853</v>
+        <v>8674</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>8963</v>
+        <v>8676</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>98</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>8990</v>
+        <v>8753</v>
       </c>
       <c r="B94">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>41</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>9082</v>
+        <v>8756</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>9507</v>
+        <v>8915</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>9827</v>
+        <v>8938</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>9830</v>
+        <v>8939</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -1466,120 +1466,120 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>9998</v>
+        <v>9065</v>
       </c>
       <c r="B99">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>10529</v>
+        <v>9691</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>10536</v>
+        <v>9784</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>10537</v>
+        <v>9827</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102">
-        <v>520</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>10717</v>
+        <v>9828</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>10719</v>
+        <v>9833</v>
       </c>
       <c r="B104">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>10780</v>
+        <v>10105</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>413</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>10825</v>
+        <v>10149</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>772</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>10906</v>
+        <v>10175</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>1231</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>11085</v>
+        <v>10529</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C108">
-        <v>622</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>11114</v>
+        <v>10530</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C109">
         <v>44</v>
@@ -1587,164 +1587,164 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>11454</v>
+        <v>11081</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>11467</v>
+        <v>11089</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>11555</v>
+        <v>11404</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>11711</v>
+        <v>11526</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>11848</v>
+        <v>11555</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11857</v>
+        <v>11687</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>115</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11886</v>
+        <v>11846</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>11952</v>
+        <v>11855</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>224</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>12059</v>
+        <v>11856</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>12128</v>
+        <v>11858</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>12470</v>
+        <v>11868</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>52</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>12536</v>
+        <v>11895</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>12538</v>
+        <v>11961</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>531</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>12675</v>
+        <v>12040</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C123">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>12870</v>
+        <v>12059</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -1752,244 +1752,288 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>13023</v>
+        <v>12128</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>13113</v>
+        <v>12489</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>20486</v>
+        <v>12536</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>20969</v>
+        <v>12538</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>21088</v>
+        <v>12546</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>246</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>21269</v>
+        <v>12573</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>355</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>21566</v>
+        <v>12611</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>21699</v>
+        <v>12925</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>206</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>21798</v>
+        <v>13023</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>158</v>
+        <v>660</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>22089</v>
+        <v>13264</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C134">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>23380</v>
+        <v>13272</v>
       </c>
       <c r="B135">
         <v>29</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>23489</v>
+        <v>13280</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>23491</v>
+        <v>14017</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>241</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>23492</v>
+        <v>14018</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>23493</v>
+        <v>20486</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>241</v>
+        <v>691</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>23611</v>
+        <v>20927</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>24127</v>
+        <v>21082</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>24252</v>
+        <v>21793</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>212</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>24256</v>
+        <v>21946</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>24257</v>
+        <v>23235</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C144">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>24258</v>
+        <v>23611</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>157</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>24260</v>
+        <v>23757</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>159</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>23878</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>23992</v>
+      </c>
+      <c r="B148">
+        <v>29</v>
+      </c>
+      <c r="C148">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>24253</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>24257</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>933</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,51 +432,51 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -487,167 +487,167 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>237</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>811</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>827</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>258</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>746</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>1484</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,29 +669,29 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>515</v>
+        <v>435</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>234</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>589</v>
+        <v>436</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -707,32 +707,32 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>615</v>
+        <v>944</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>951</v>
+        <v>990</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,329 +740,329 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>952</v>
+        <v>996</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>972</v>
+        <v>1055</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>673</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>974</v>
+        <v>1065</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>990</v>
+        <v>1309</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>991</v>
+        <v>1409</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1124</v>
+        <v>1765</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1309</v>
+        <v>1766</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1413</v>
+        <v>1767</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>116</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1622</v>
+        <v>1801</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1654</v>
+        <v>1880</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>104</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1776</v>
+        <v>2049</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>122</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1777</v>
+        <v>2054</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2049</v>
+        <v>2308</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C45">
-        <v>619</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2054</v>
+        <v>2538</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2103</v>
+        <v>2729</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>389</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2108</v>
+        <v>2734</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>312</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2109</v>
+        <v>2859</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2161</v>
+        <v>3016</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2422</v>
+        <v>3047</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2726</v>
+        <v>3048</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2729</v>
+        <v>3429</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2733</v>
+        <v>3430</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2859</v>
+        <v>3454</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2878</v>
+        <v>3462</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2916</v>
+        <v>3840</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3049</v>
+        <v>3889</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3429</v>
+        <v>3891</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3610</v>
+        <v>3899</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>235</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3889</v>
+        <v>4223</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3891</v>
+        <v>4224</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3900</v>
+        <v>4232</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1081,109 +1081,109 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3994</v>
+        <v>4899</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>4222</v>
+        <v>4962</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>5083</v>
+        <v>5127</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="C66">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>5086</v>
+        <v>5153</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>5151</v>
+        <v>5208</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>5152</v>
+        <v>5243</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>5153</v>
+        <v>5341</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>5165</v>
+        <v>5453</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>5243</v>
+        <v>5490</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>284</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>5453</v>
+        <v>5585</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,274 +1191,274 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5584</v>
+        <v>5723</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>274</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5585</v>
+        <v>5946</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>282</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>5642</v>
+        <v>5966</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>5647</v>
+        <v>6098</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5666</v>
+        <v>6158</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>5813</v>
+        <v>6575</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>669</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>5946</v>
+        <v>6965</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>6158</v>
+        <v>7520</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>284</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>6575</v>
+        <v>7886</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>307</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>6928</v>
+        <v>8217</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>6936</v>
+        <v>8674</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>13</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>7004</v>
+        <v>8898</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>7005</v>
+        <v>8938</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>7007</v>
+        <v>8939</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8216</v>
+        <v>8944</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>2375</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>8217</v>
+        <v>9065</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>8283</v>
+        <v>9070</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>531</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>8286</v>
+        <v>9081</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>535</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8674</v>
+        <v>9135</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="C92">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>8676</v>
+        <v>9208</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>320</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>8753</v>
+        <v>9507</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>8756</v>
+        <v>9783</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>385</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>8915</v>
+        <v>9784</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>8938</v>
+        <v>9803</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>8939</v>
+        <v>9828</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -1466,43 +1466,43 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>9065</v>
+        <v>10149</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>345</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>9691</v>
+        <v>10275</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>84</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>9784</v>
+        <v>10407</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>80</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>9827</v>
+        <v>10530</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>9828</v>
+        <v>10616</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -1521,54 +1521,54 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>9833</v>
+        <v>10825</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>10105</v>
+        <v>10993</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>10149</v>
+        <v>11059</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>1062</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>10175</v>
+        <v>11081</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>10529</v>
+        <v>11090</v>
       </c>
       <c r="B108">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -1576,175 +1576,175 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>10530</v>
+        <v>11091</v>
       </c>
       <c r="B109">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>11081</v>
+        <v>11092</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>11089</v>
+        <v>11116</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>188</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>11404</v>
+        <v>11180</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>11526</v>
+        <v>11357</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>1675</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>11555</v>
+        <v>11396</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11687</v>
+        <v>11467</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>347</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11846</v>
+        <v>11582</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>11855</v>
+        <v>11583</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C117">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>11856</v>
+        <v>11587</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>11858</v>
+        <v>11610</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>115</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>11868</v>
+        <v>11611</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>330</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>11895</v>
+        <v>11689</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>11961</v>
+        <v>11711</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>12040</v>
+        <v>11739</v>
       </c>
       <c r="B123">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>12059</v>
+        <v>11772</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -1752,87 +1752,87 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>12128</v>
+        <v>11846</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>12489</v>
+        <v>11856</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>12536</v>
+        <v>11857</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>12538</v>
+        <v>11858</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>502</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>12546</v>
+        <v>11868</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>12573</v>
+        <v>11886</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>12611</v>
+        <v>11919</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>12925</v>
+        <v>12059</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -1840,117 +1840,117 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>13023</v>
+        <v>12128</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>660</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>13264</v>
+        <v>12611</v>
       </c>
       <c r="B134">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>13272</v>
+        <v>12887</v>
       </c>
       <c r="B135">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>13280</v>
+        <v>12924</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>14017</v>
+        <v>13023</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>14018</v>
+        <v>13258</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C138">
-        <v>218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>20486</v>
+        <v>13299</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>691</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>20927</v>
+        <v>19987</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>21082</v>
+        <v>20977</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>21793</v>
+        <v>21712</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>269</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>21946</v>
+        <v>21793</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1961,79 +1961,156 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>23235</v>
+        <v>21808</v>
       </c>
       <c r="B144">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>23611</v>
+        <v>22317</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>23757</v>
+        <v>22330</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>23878</v>
+        <v>22363</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>283</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>23992</v>
+        <v>23262</v>
       </c>
       <c r="B148">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C148">
-        <v>47</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>24253</v>
+        <v>23611</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
+        <v>23992</v>
+      </c>
+      <c r="B150">
+        <v>29</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>23994</v>
+      </c>
+      <c r="B151">
+        <v>29</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>24256</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
         <v>24257</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>24258</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>24260</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
         <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>24707</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>24712</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
